--- a/ЗАВОДЫ/Черкизово UZ/2025/10,25/23,10,25 Черкизово Ташкент (вне плана Шувалова)/старый расчет для переноса заказа.xlsx
+++ b/ЗАВОДЫ/Черкизово UZ/2025/10,25/23,10,25 Черкизово Ташкент (вне плана Шувалова)/старый расчет для переноса заказа.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\22,10,25 Черкизово Ташкент (вне плана Шувалова)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Черкизово UZ\2025\10,25\23,10,25 Черкизово Ташкент (вне плана Шувалова)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A549FCF-5E78-4D4D-9EAC-E66DD1CEA38E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8696B6-7D13-43F4-8D4E-C1365EA234C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2723,6 +2723,1371 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Номенклатура</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Ед. изм.</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Начальный остаток</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Приход</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Расход</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>Конечный остаток</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>Конечный остаток</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>крат</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>сроки</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>метка</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>метка2</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>заяв</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>разн</v>
+          </cell>
+          <cell r="N3" t="str">
+            <v>без опта</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>опт</v>
+          </cell>
+          <cell r="P3" t="str">
+            <v>заказ в пути</v>
+          </cell>
+          <cell r="Q3" t="str">
+            <v>ср нов</v>
+          </cell>
+          <cell r="R3" t="str">
+            <v>расчет</v>
+          </cell>
+          <cell r="S3" t="str">
+            <v>заказ филиала</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>45952</v>
+          </cell>
+          <cell r="G4">
+            <v>45951</v>
+          </cell>
+          <cell r="P4">
+            <v>20.100000000000001</v>
+          </cell>
+          <cell r="Q4" t="str">
+            <v>09,10,</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>3362.2530000000002</v>
+          </cell>
+          <cell r="F5">
+            <v>8424.0460000000003</v>
+          </cell>
+          <cell r="G5">
+            <v>8811.5580000000009</v>
+          </cell>
+          <cell r="L5">
+            <v>0</v>
+          </cell>
+          <cell r="M5">
+            <v>3362.2530000000002</v>
+          </cell>
+          <cell r="N5">
+            <v>0</v>
+          </cell>
+          <cell r="O5">
+            <v>0</v>
+          </cell>
+          <cell r="P5">
+            <v>2800</v>
+          </cell>
+          <cell r="Q5">
+            <v>672.45060000000001</v>
+          </cell>
+          <cell r="R5">
+            <v>1757.4580000000001</v>
+          </cell>
+          <cell r="S5">
+            <v>1660</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>БОНУС_ВЕТЧ МРАМОРНАЯ ПО-ЧЕРКИЗОВСКИ ШТ 0,4 КГ  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C6">
+            <v>2</v>
+          </cell>
+          <cell r="H6">
+            <v>0</v>
+          </cell>
+          <cell r="J6" t="str">
+            <v>бонус</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>ВЕТЧ МРАМОРНАЯ ПО-ЧЕРКИЗОВСКИ ШТ 0,4 КГ  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+          <cell r="Q6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>БОНУС_КОПЧ БЕКОН НАР ВУ ШТ 0.18КГ К1.8  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C7">
+            <v>2</v>
+          </cell>
+          <cell r="F7">
+            <v>-12</v>
+          </cell>
+          <cell r="H7">
+            <v>0</v>
+          </cell>
+          <cell r="J7" t="str">
+            <v>бонус</v>
+          </cell>
+          <cell r="K7" t="str">
+            <v>КОПЧ БЕКОН НАР ВУ ШТ 0.18КГ К1.8  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="M7">
+            <v>0</v>
+          </cell>
+          <cell r="Q7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>БОНУС_СК БОГОРОДСКАЯ ПРЕСС ФИБ ВУ ШТ0.3КГ К3.6  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C8">
+            <v>2</v>
+          </cell>
+          <cell r="H8">
+            <v>0</v>
+          </cell>
+          <cell r="J8" t="str">
+            <v>бонус</v>
+          </cell>
+          <cell r="K8" t="str">
+            <v>СК БОГОРОДСКАЯ ПРЕСС ФИБ ВУ ШТ0.3КГ К3.6  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="M8">
+            <v>0</v>
+          </cell>
+          <cell r="Q8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>БОНУС_СОС КОПЧ ПО-Ч ЛОТ ПМО ЗА ШТ 0.4КГ K1.6  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C9">
+            <v>1</v>
+          </cell>
+          <cell r="F9">
+            <v>-33</v>
+          </cell>
+          <cell r="H9">
+            <v>0</v>
+          </cell>
+          <cell r="J9" t="str">
+            <v>бонус</v>
+          </cell>
+          <cell r="K9" t="str">
+            <v>СОС КОПЧ ПО-Ч ЛОТ ПМО ЗА ШТ 0.4КГ K1.6  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+          <cell r="Q9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>ВАР АРОМАТНАЯ ПО-Ч ЦО ЗА 1.6КГ K3.2 ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C10">
+            <v>38.396999999999998</v>
+          </cell>
+          <cell r="D10">
+            <v>162.833</v>
+          </cell>
+          <cell r="E10">
+            <v>53.323999999999998</v>
+          </cell>
+          <cell r="F10">
+            <v>20.925999999999998</v>
+          </cell>
+          <cell r="G10">
+            <v>25.798999999999999</v>
+          </cell>
+          <cell r="H10">
+            <v>1</v>
+          </cell>
+          <cell r="I10">
+            <v>30</v>
+          </cell>
+          <cell r="J10">
+            <v>1030112235</v>
+          </cell>
+          <cell r="M10">
+            <v>53.323999999999998</v>
+          </cell>
+          <cell r="P10">
+            <v>80</v>
+          </cell>
+          <cell r="Q10">
+            <v>10.6648</v>
+          </cell>
+          <cell r="R10">
+            <v>112.36999999999999</v>
+          </cell>
+          <cell r="S10">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>ВАР КЛАССИЧЕСКАЯ ПО-Ч ЦО ЗА 1.6КГ K3.2 ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C11">
+            <v>9.7739999999999991</v>
+          </cell>
+          <cell r="D11">
+            <v>203.393</v>
+          </cell>
+          <cell r="E11">
+            <v>92.781000000000006</v>
+          </cell>
+          <cell r="F11">
+            <v>99.143000000000001</v>
+          </cell>
+          <cell r="G11">
+            <v>126.667</v>
+          </cell>
+          <cell r="H11">
+            <v>1</v>
+          </cell>
+          <cell r="I11">
+            <v>30</v>
+          </cell>
+          <cell r="J11">
+            <v>1030112635</v>
+          </cell>
+          <cell r="M11">
+            <v>92.781000000000006</v>
+          </cell>
+          <cell r="P11">
+            <v>120</v>
+          </cell>
+          <cell r="Q11">
+            <v>18.5562</v>
+          </cell>
+          <cell r="R11">
+            <v>151.98100000000002</v>
+          </cell>
+          <cell r="S11">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>ВАР МОЛОЧНАЯ ПО-Ч НМО 1 КГ К3  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C12">
+            <v>568.62800000000004</v>
+          </cell>
+          <cell r="D12">
+            <v>30.692</v>
+          </cell>
+          <cell r="E12">
+            <v>102.172</v>
+          </cell>
+          <cell r="F12">
+            <v>555.36</v>
+          </cell>
+          <cell r="G12">
+            <v>561.56200000000001</v>
+          </cell>
+          <cell r="H12">
+            <v>1</v>
+          </cell>
+          <cell r="I12">
+            <v>75</v>
+          </cell>
+          <cell r="J12">
+            <v>1030115552</v>
+          </cell>
+          <cell r="M12">
+            <v>102.172</v>
+          </cell>
+          <cell r="P12">
+            <v>80</v>
+          </cell>
+          <cell r="Q12">
+            <v>20.4344</v>
+          </cell>
+          <cell r="R12">
+            <v>-226.67200000000003</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>ВАР МОЛОЧНАЯ ПО-ЧЕ НМО ШТ 0.4КГ К2.4  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C13">
+            <v>693</v>
+          </cell>
+          <cell r="D13">
+            <v>552</v>
+          </cell>
+          <cell r="E13">
+            <v>391</v>
+          </cell>
+          <cell r="F13">
+            <v>615</v>
+          </cell>
+          <cell r="G13">
+            <v>634</v>
+          </cell>
+          <cell r="H13">
+            <v>0.4</v>
+          </cell>
+          <cell r="I13">
+            <v>75</v>
+          </cell>
+          <cell r="J13">
+            <v>1030115404</v>
+          </cell>
+          <cell r="M13">
+            <v>391</v>
+          </cell>
+          <cell r="P13">
+            <v>500</v>
+          </cell>
+          <cell r="Q13">
+            <v>78.2</v>
+          </cell>
+          <cell r="R13">
+            <v>449</v>
+          </cell>
+          <cell r="S13">
+            <v>200</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>ВЕТЧ МРАМОРНАЯ ПО-ЧЕРКИЗОВСКИ ШТ 0,4 КГ  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C14">
+            <v>182</v>
+          </cell>
+          <cell r="D14">
+            <v>552</v>
+          </cell>
+          <cell r="E14">
+            <v>111</v>
+          </cell>
+          <cell r="F14">
+            <v>626</v>
+          </cell>
+          <cell r="G14">
+            <v>633</v>
+          </cell>
+          <cell r="H14">
+            <v>0.4</v>
+          </cell>
+          <cell r="I14">
+            <v>75</v>
+          </cell>
+          <cell r="J14">
+            <v>1030804004</v>
+          </cell>
+          <cell r="M14">
+            <v>111</v>
+          </cell>
+          <cell r="Q14">
+            <v>22.2</v>
+          </cell>
+          <cell r="R14">
+            <v>-182</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>ВК БАЛЫКОВАЯ ПО-ЧЕРКИЗ СРЕЗ ШТ0,3 К1,8  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C15">
+            <v>185</v>
+          </cell>
+          <cell r="D15">
+            <v>450</v>
+          </cell>
+          <cell r="E15">
+            <v>73</v>
+          </cell>
+          <cell r="F15">
+            <v>451</v>
+          </cell>
+          <cell r="G15">
+            <v>457</v>
+          </cell>
+          <cell r="H15">
+            <v>0.3</v>
+          </cell>
+          <cell r="I15">
+            <v>45</v>
+          </cell>
+          <cell r="J15">
+            <v>1030419235</v>
+          </cell>
+          <cell r="M15">
+            <v>73</v>
+          </cell>
+          <cell r="Q15">
+            <v>14.6</v>
+          </cell>
+          <cell r="R15">
+            <v>-159</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>ВК СЕРВ ГОСТ СРЕЗ ФИБ ВУ ШТ 0.5КГ К2  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C16">
+            <v>220</v>
+          </cell>
+          <cell r="E16">
+            <v>132</v>
+          </cell>
+          <cell r="F16">
+            <v>90</v>
+          </cell>
+          <cell r="G16">
+            <v>93</v>
+          </cell>
+          <cell r="H16">
+            <v>0.5</v>
+          </cell>
+          <cell r="I16">
+            <v>45</v>
+          </cell>
+          <cell r="J16">
+            <v>1030412236</v>
+          </cell>
+          <cell r="M16">
+            <v>132</v>
+          </cell>
+          <cell r="P16">
+            <v>200</v>
+          </cell>
+          <cell r="Q16">
+            <v>26.4</v>
+          </cell>
+          <cell r="R16">
+            <v>238</v>
+          </cell>
+          <cell r="S16">
+            <v>250</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>КОПЧ БЕКОН НАР ВУ ШТ 0.18КГ К1.8  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C17">
+            <v>881</v>
+          </cell>
+          <cell r="D17">
+            <v>950</v>
+          </cell>
+          <cell r="E17">
+            <v>204</v>
+          </cell>
+          <cell r="F17">
+            <v>1163</v>
+          </cell>
+          <cell r="G17">
+            <v>1195</v>
+          </cell>
+          <cell r="H17">
+            <v>0.18</v>
+          </cell>
+          <cell r="I17">
+            <v>90</v>
+          </cell>
+          <cell r="J17">
+            <v>1030712385</v>
+          </cell>
+          <cell r="M17">
+            <v>204</v>
+          </cell>
+          <cell r="Q17">
+            <v>40.799999999999997</v>
+          </cell>
+          <cell r="R17">
+            <v>-347</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>КОПЧ ГРУДИНКА ПО-ЧЕРК ВУ ШТ 0.3КГ К1.8  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="H18">
+            <v>0.3</v>
+          </cell>
+          <cell r="I18">
+            <v>60</v>
+          </cell>
+          <cell r="J18">
+            <v>1030709904</v>
+          </cell>
+          <cell r="M18">
+            <v>0</v>
+          </cell>
+          <cell r="Q18">
+            <v>0</v>
+          </cell>
+          <cell r="R18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>СВ ФУЭТ ЭКСТРА 0.15КГ К0.9  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C19">
+            <v>112</v>
+          </cell>
+          <cell r="E19">
+            <v>60</v>
+          </cell>
+          <cell r="F19">
+            <v>2</v>
+          </cell>
+          <cell r="G19">
+            <v>2</v>
+          </cell>
+          <cell r="H19">
+            <v>0</v>
+          </cell>
+          <cell r="I19">
+            <v>90</v>
+          </cell>
+          <cell r="J19" t="str">
+            <v>НЕ ЗАКАЗЫВАТЬ / 1030633904</v>
+          </cell>
+          <cell r="M19">
+            <v>60</v>
+          </cell>
+          <cell r="Q19">
+            <v>12</v>
+          </cell>
+          <cell r="R19">
+            <v>238</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>СК БОГОРОДСКАЯ ПРЕСС ФИБ ВУ ШТ0.3КГ К3.6  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C20">
+            <v>585</v>
+          </cell>
+          <cell r="D20">
+            <v>600</v>
+          </cell>
+          <cell r="E20">
+            <v>184</v>
+          </cell>
+          <cell r="F20">
+            <v>1163</v>
+          </cell>
+          <cell r="G20">
+            <v>1172</v>
+          </cell>
+          <cell r="H20">
+            <v>0.3</v>
+          </cell>
+          <cell r="I20">
+            <v>150</v>
+          </cell>
+          <cell r="J20">
+            <v>1030686740</v>
+          </cell>
+          <cell r="M20">
+            <v>184</v>
+          </cell>
+          <cell r="Q20">
+            <v>36.799999999999997</v>
+          </cell>
+          <cell r="R20">
+            <v>-427</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>СК БОРОДИНСКАЯ СРЕЗ ФИБ ВУ 0.3КГ ШТ К3.6  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C21">
+            <v>774</v>
+          </cell>
+          <cell r="D21">
+            <v>216</v>
+          </cell>
+          <cell r="E21">
+            <v>215</v>
+          </cell>
+          <cell r="F21">
+            <v>779</v>
+          </cell>
+          <cell r="G21">
+            <v>786</v>
+          </cell>
+          <cell r="H21">
+            <v>0.3</v>
+          </cell>
+          <cell r="I21">
+            <v>135</v>
+          </cell>
+          <cell r="J21">
+            <v>1030686857</v>
+          </cell>
+          <cell r="M21">
+            <v>215</v>
+          </cell>
+          <cell r="P21">
+            <v>300</v>
+          </cell>
+          <cell r="Q21">
+            <v>43</v>
+          </cell>
+          <cell r="R21">
+            <v>-219</v>
+          </cell>
+          <cell r="S21">
+            <v>200</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>СК БРАУНШВЕЙГСКАЯ ГОСТ БО СРЕЗ ШТ 0,2КГ  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C22">
+            <v>588</v>
+          </cell>
+          <cell r="E22">
+            <v>87</v>
+          </cell>
+          <cell r="F22">
+            <v>378</v>
+          </cell>
+          <cell r="G22">
+            <v>384</v>
+          </cell>
+          <cell r="H22">
+            <v>0.2</v>
+          </cell>
+          <cell r="I22">
+            <v>90</v>
+          </cell>
+          <cell r="J22">
+            <v>1030654104</v>
+          </cell>
+          <cell r="M22">
+            <v>87</v>
+          </cell>
+          <cell r="P22">
+            <v>40</v>
+          </cell>
+          <cell r="Q22">
+            <v>17.399999999999999</v>
+          </cell>
+          <cell r="R22">
+            <v>-70</v>
+          </cell>
+          <cell r="S22">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>СК ОНЕЖСКАЯ СРЕЗ ФИБ ВУ ШТ 0.3КГ K1.8 ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C23">
+            <v>233</v>
+          </cell>
+          <cell r="D23">
+            <v>198</v>
+          </cell>
+          <cell r="E23">
+            <v>78</v>
+          </cell>
+          <cell r="F23">
+            <v>323</v>
+          </cell>
+          <cell r="G23">
+            <v>329</v>
+          </cell>
+          <cell r="H23">
+            <v>0.3</v>
+          </cell>
+          <cell r="I23">
+            <v>135</v>
+          </cell>
+          <cell r="J23">
+            <v>1030686241</v>
+          </cell>
+          <cell r="M23">
+            <v>78</v>
+          </cell>
+          <cell r="P23">
+            <v>100</v>
+          </cell>
+          <cell r="Q23">
+            <v>15.6</v>
+          </cell>
+          <cell r="R23">
+            <v>-111</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>СК САЛЬЧИЧОН НАРЕЗ ФИБ ЗА ШТ 0.1КГ К1.2  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="D24">
+            <v>120</v>
+          </cell>
+          <cell r="E24">
+            <v>116</v>
+          </cell>
+          <cell r="F24">
+            <v>76</v>
+          </cell>
+          <cell r="G24">
+            <v>88</v>
+          </cell>
+          <cell r="H24">
+            <v>0.1</v>
+          </cell>
+          <cell r="I24">
+            <v>90</v>
+          </cell>
+          <cell r="J24">
+            <v>1030650028</v>
+          </cell>
+          <cell r="M24">
+            <v>116</v>
+          </cell>
+          <cell r="P24">
+            <v>120</v>
+          </cell>
+          <cell r="Q24">
+            <v>23.2</v>
+          </cell>
+          <cell r="R24">
+            <v>268</v>
+          </cell>
+          <cell r="S24">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>СК САЛЬЧИЧОН С РОЗОВЫМ ПЕРЦ. СРЕЗ ШТ 0,3  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C25">
+            <v>186</v>
+          </cell>
+          <cell r="D25">
+            <v>198</v>
+          </cell>
+          <cell r="E25">
+            <v>75</v>
+          </cell>
+          <cell r="F25">
+            <v>212</v>
+          </cell>
+          <cell r="G25">
+            <v>218</v>
+          </cell>
+          <cell r="H25">
+            <v>0.3</v>
+          </cell>
+          <cell r="I25">
+            <v>135</v>
+          </cell>
+          <cell r="J25">
+            <v>1030657419</v>
+          </cell>
+          <cell r="M25">
+            <v>75</v>
+          </cell>
+          <cell r="P25">
+            <v>120</v>
+          </cell>
+          <cell r="Q25">
+            <v>15</v>
+          </cell>
+          <cell r="R25">
+            <v>-32</v>
+          </cell>
+          <cell r="S25">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>СК САЛЬЧИЧОН С РОЗОВЫМ ПЕРЦЕМ НАР ШТ 85Г  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="D26">
+            <v>60</v>
+          </cell>
+          <cell r="E26">
+            <v>43</v>
+          </cell>
+          <cell r="F26">
+            <v>28</v>
+          </cell>
+          <cell r="G26">
+            <v>40</v>
+          </cell>
+          <cell r="H26">
+            <v>8.5000000000000006E-2</v>
+          </cell>
+          <cell r="I26">
+            <v>90</v>
+          </cell>
+          <cell r="J26">
+            <v>1030657628</v>
+          </cell>
+          <cell r="M26">
+            <v>43</v>
+          </cell>
+          <cell r="P26">
+            <v>80</v>
+          </cell>
+          <cell r="Q26">
+            <v>8.6</v>
+          </cell>
+          <cell r="R26">
+            <v>64</v>
+          </cell>
+          <cell r="S26">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>СК САЛЬЧИЧОН СРЕЗ ФИБ ВУ ШТ 0,3 КГ ЧЕРКИЗОВО (ПРЕМИУМ)</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C27">
+            <v>292</v>
+          </cell>
+          <cell r="D27">
+            <v>198</v>
+          </cell>
+          <cell r="E27">
+            <v>70</v>
+          </cell>
+          <cell r="F27">
+            <v>399</v>
+          </cell>
+          <cell r="G27">
+            <v>405</v>
+          </cell>
+          <cell r="H27">
+            <v>0.3</v>
+          </cell>
+          <cell r="I27">
+            <v>135</v>
+          </cell>
+          <cell r="J27">
+            <v>1030679319</v>
+          </cell>
+          <cell r="M27">
+            <v>70</v>
+          </cell>
+          <cell r="Q27">
+            <v>14</v>
+          </cell>
+          <cell r="R27">
+            <v>-119</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>СК САЛЯМИНИ ВУ ШТ 0.18 КГ  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C28">
+            <v>258</v>
+          </cell>
+          <cell r="E28">
+            <v>218</v>
+          </cell>
+          <cell r="H28">
+            <v>0.18</v>
+          </cell>
+          <cell r="I28">
+            <v>150</v>
+          </cell>
+          <cell r="J28">
+            <v>1030638204</v>
+          </cell>
+          <cell r="M28">
+            <v>218</v>
+          </cell>
+          <cell r="Q28">
+            <v>43.6</v>
+          </cell>
+          <cell r="R28">
+            <v>872</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>СК СЕРВЕЛЕТТИ ПРЕСС СРЕЗ БО ВУ ШТ 0.25КГ  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C29">
+            <v>289</v>
+          </cell>
+          <cell r="D29">
+            <v>228</v>
+          </cell>
+          <cell r="E29">
+            <v>164</v>
+          </cell>
+          <cell r="F29">
+            <v>289</v>
+          </cell>
+          <cell r="G29">
+            <v>295</v>
+          </cell>
+          <cell r="H29">
+            <v>0.25</v>
+          </cell>
+          <cell r="I29">
+            <v>120</v>
+          </cell>
+          <cell r="J29">
+            <v>1030670844</v>
+          </cell>
+          <cell r="M29">
+            <v>164</v>
+          </cell>
+          <cell r="P29">
+            <v>300</v>
+          </cell>
+          <cell r="Q29">
+            <v>32.799999999999997</v>
+          </cell>
+          <cell r="R29">
+            <v>67</v>
+          </cell>
+          <cell r="S29">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>СОС ВЕНСКИЕ БО ЗА ПАК 1.25КГ K5 ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C30">
+            <v>15.885999999999999</v>
+          </cell>
+          <cell r="D30">
+            <v>147.29499999999999</v>
+          </cell>
+          <cell r="E30">
+            <v>61.348999999999997</v>
+          </cell>
+          <cell r="F30">
+            <v>108.617</v>
+          </cell>
+          <cell r="G30">
+            <v>123.53</v>
+          </cell>
+          <cell r="H30">
+            <v>1</v>
+          </cell>
+          <cell r="I30">
+            <v>35</v>
+          </cell>
+          <cell r="J30">
+            <v>1030228316</v>
+          </cell>
+          <cell r="M30">
+            <v>61.348999999999997</v>
+          </cell>
+          <cell r="P30">
+            <v>60</v>
+          </cell>
+          <cell r="Q30">
+            <v>12.2698</v>
+          </cell>
+          <cell r="R30">
+            <v>76.779000000000011</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>СОС КОПЧ ПО-Ч ЛОТ ПМО ЗА ШТ 0.4КГ K1.6  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C31">
+            <v>101</v>
+          </cell>
+          <cell r="D31">
+            <v>804</v>
+          </cell>
+          <cell r="E31">
+            <v>253</v>
+          </cell>
+          <cell r="F31">
+            <v>870</v>
+          </cell>
+          <cell r="G31">
+            <v>912</v>
+          </cell>
+          <cell r="H31">
+            <v>0.4</v>
+          </cell>
+          <cell r="I31">
+            <v>41</v>
+          </cell>
+          <cell r="J31">
+            <v>1030234120</v>
+          </cell>
+          <cell r="M31">
+            <v>253</v>
+          </cell>
+          <cell r="P31">
+            <v>200</v>
+          </cell>
+          <cell r="Q31">
+            <v>50.6</v>
+          </cell>
+          <cell r="R31">
+            <v>-58</v>
+          </cell>
+          <cell r="S31">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>СОС МОЛОЧНЫЕ ПО-Ч ПМО ЗА ЛОТ ШТ 0.45КГ K1.8 ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C32">
+            <v>51</v>
+          </cell>
+          <cell r="D32">
+            <v>400</v>
+          </cell>
+          <cell r="E32">
+            <v>212</v>
+          </cell>
+          <cell r="F32">
+            <v>180</v>
+          </cell>
+          <cell r="G32">
+            <v>255</v>
+          </cell>
+          <cell r="H32">
+            <v>0.45</v>
+          </cell>
+          <cell r="I32">
+            <v>31</v>
+          </cell>
+          <cell r="J32">
+            <v>1030228620</v>
+          </cell>
+          <cell r="M32">
+            <v>212</v>
+          </cell>
+          <cell r="P32">
+            <v>200</v>
+          </cell>
+          <cell r="Q32">
+            <v>42.4</v>
+          </cell>
+          <cell r="R32">
+            <v>468</v>
+          </cell>
+          <cell r="S32">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>СОС СЛИВОЧНЫЕ ГОСТ ЦО ЗА ЛОТ ШТ 0.45КГ K1.8 ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="D33">
+            <v>272</v>
+          </cell>
+          <cell r="E33">
+            <v>261</v>
+          </cell>
+          <cell r="F33">
+            <v>41</v>
+          </cell>
+          <cell r="G33">
+            <v>76</v>
+          </cell>
+          <cell r="H33">
+            <v>0.45</v>
+          </cell>
+          <cell r="I33">
+            <v>30</v>
+          </cell>
+          <cell r="J33">
+            <v>1030212603</v>
+          </cell>
+          <cell r="M33">
+            <v>261</v>
+          </cell>
+          <cell r="P33">
+            <v>300</v>
+          </cell>
+          <cell r="Q33">
+            <v>52.2</v>
+          </cell>
+          <cell r="R33">
+            <v>703</v>
+          </cell>
+          <cell r="S33">
+            <v>200</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>У_ВАР АРОМАТНАЯ ПО-Ч ЦО ЗА 1.6КГ K3.2 ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C34">
+            <v>14.542</v>
+          </cell>
+          <cell r="E34">
+            <v>14.542</v>
+          </cell>
+          <cell r="H34">
+            <v>0</v>
+          </cell>
+          <cell r="J34" t="str">
+            <v>уценка</v>
+          </cell>
+          <cell r="M34">
+            <v>14.542</v>
+          </cell>
+          <cell r="Q34">
+            <v>2.9083999999999999</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>У_ВАР КЛАССИЧЕСКАЯ ПО-Ч ЦО ЗА 1.6КГ K3.2 ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C35">
+            <v>8.0850000000000009</v>
+          </cell>
+          <cell r="E35">
+            <v>8.0850000000000009</v>
+          </cell>
+          <cell r="H35">
+            <v>0</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v>уценка</v>
+          </cell>
+          <cell r="M35">
+            <v>8.0850000000000009</v>
+          </cell>
+          <cell r="Q35">
+            <v>1.6170000000000002</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>У_СОС КОПЧ ПО-Ч ЛОТ ПМО ЗА ШТ 0.4КГ K1.6  ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C36">
+            <v>61</v>
+          </cell>
+          <cell r="E36">
+            <v>61</v>
+          </cell>
+          <cell r="H36">
+            <v>0</v>
+          </cell>
+          <cell r="J36" t="str">
+            <v>уценка</v>
+          </cell>
+          <cell r="M36">
+            <v>61</v>
+          </cell>
+          <cell r="Q36">
+            <v>12.2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>У_СОС МОЛОЧНЫЕ ПО-Ч ПМО ЗА ЛОТ ШТ 0.45КГ K1.8 ЧЕРКИЗОВО</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C37">
+            <v>22</v>
+          </cell>
+          <cell r="E37">
+            <v>22</v>
+          </cell>
+          <cell r="H37">
+            <v>0</v>
+          </cell>
+          <cell r="J37" t="str">
+            <v>уценка</v>
+          </cell>
+          <cell r="M37">
+            <v>22</v>
+          </cell>
+          <cell r="Q37">
+            <v>4.4000000000000004</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
         <row r="1">
           <cell r="I1"/>
           <cell r="J1"/>
@@ -19095,1371 +20460,6 @@
           <cell r="AH500"/>
           <cell r="AI500"/>
           <cell r="AJ500"/>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Номенклатура</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>Ед. изм.</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>Начальный остаток</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>Приход</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Расход</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>Конечный остаток</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>Конечный остаток</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>крат</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>сроки</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v>метка</v>
-          </cell>
-          <cell r="K3" t="str">
-            <v>метка2</v>
-          </cell>
-          <cell r="L3" t="str">
-            <v>заяв</v>
-          </cell>
-          <cell r="M3" t="str">
-            <v>разн</v>
-          </cell>
-          <cell r="N3" t="str">
-            <v>без опта</v>
-          </cell>
-          <cell r="O3" t="str">
-            <v>опт</v>
-          </cell>
-          <cell r="P3" t="str">
-            <v>заказ в пути</v>
-          </cell>
-          <cell r="Q3" t="str">
-            <v>ср нов</v>
-          </cell>
-          <cell r="R3" t="str">
-            <v>расчет</v>
-          </cell>
-          <cell r="S3" t="str">
-            <v>заказ филиала</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>45952</v>
-          </cell>
-          <cell r="G4">
-            <v>45951</v>
-          </cell>
-          <cell r="P4">
-            <v>20.100000000000001</v>
-          </cell>
-          <cell r="Q4" t="str">
-            <v>09,10,</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>3362.2530000000002</v>
-          </cell>
-          <cell r="F5">
-            <v>8424.0460000000003</v>
-          </cell>
-          <cell r="G5">
-            <v>8811.5580000000009</v>
-          </cell>
-          <cell r="L5">
-            <v>0</v>
-          </cell>
-          <cell r="M5">
-            <v>3362.2530000000002</v>
-          </cell>
-          <cell r="N5">
-            <v>0</v>
-          </cell>
-          <cell r="O5">
-            <v>0</v>
-          </cell>
-          <cell r="P5">
-            <v>2800</v>
-          </cell>
-          <cell r="Q5">
-            <v>672.45060000000001</v>
-          </cell>
-          <cell r="R5">
-            <v>1757.4580000000001</v>
-          </cell>
-          <cell r="S5">
-            <v>1660</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>БОНУС_ВЕТЧ МРАМОРНАЯ ПО-ЧЕРКИЗОВСКИ ШТ 0,4 КГ  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C6">
-            <v>2</v>
-          </cell>
-          <cell r="H6">
-            <v>0</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v>бонус</v>
-          </cell>
-          <cell r="K6" t="str">
-            <v>ВЕТЧ МРАМОРНАЯ ПО-ЧЕРКИЗОВСКИ ШТ 0,4 КГ  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-          <cell r="Q6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>БОНУС_КОПЧ БЕКОН НАР ВУ ШТ 0.18КГ К1.8  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C7">
-            <v>2</v>
-          </cell>
-          <cell r="F7">
-            <v>-12</v>
-          </cell>
-          <cell r="H7">
-            <v>0</v>
-          </cell>
-          <cell r="J7" t="str">
-            <v>бонус</v>
-          </cell>
-          <cell r="K7" t="str">
-            <v>КОПЧ БЕКОН НАР ВУ ШТ 0.18КГ К1.8  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="M7">
-            <v>0</v>
-          </cell>
-          <cell r="Q7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>БОНУС_СК БОГОРОДСКАЯ ПРЕСС ФИБ ВУ ШТ0.3КГ К3.6  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C8">
-            <v>2</v>
-          </cell>
-          <cell r="H8">
-            <v>0</v>
-          </cell>
-          <cell r="J8" t="str">
-            <v>бонус</v>
-          </cell>
-          <cell r="K8" t="str">
-            <v>СК БОГОРОДСКАЯ ПРЕСС ФИБ ВУ ШТ0.3КГ К3.6  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="M8">
-            <v>0</v>
-          </cell>
-          <cell r="Q8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>БОНУС_СОС КОПЧ ПО-Ч ЛОТ ПМО ЗА ШТ 0.4КГ K1.6  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C9">
-            <v>1</v>
-          </cell>
-          <cell r="F9">
-            <v>-33</v>
-          </cell>
-          <cell r="H9">
-            <v>0</v>
-          </cell>
-          <cell r="J9" t="str">
-            <v>бонус</v>
-          </cell>
-          <cell r="K9" t="str">
-            <v>СОС КОПЧ ПО-Ч ЛОТ ПМО ЗА ШТ 0.4КГ K1.6  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="M9">
-            <v>0</v>
-          </cell>
-          <cell r="Q9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>ВАР АРОМАТНАЯ ПО-Ч ЦО ЗА 1.6КГ K3.2 ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C10">
-            <v>38.396999999999998</v>
-          </cell>
-          <cell r="D10">
-            <v>162.833</v>
-          </cell>
-          <cell r="E10">
-            <v>53.323999999999998</v>
-          </cell>
-          <cell r="F10">
-            <v>20.925999999999998</v>
-          </cell>
-          <cell r="G10">
-            <v>25.798999999999999</v>
-          </cell>
-          <cell r="H10">
-            <v>1</v>
-          </cell>
-          <cell r="I10">
-            <v>30</v>
-          </cell>
-          <cell r="J10">
-            <v>1030112235</v>
-          </cell>
-          <cell r="M10">
-            <v>53.323999999999998</v>
-          </cell>
-          <cell r="P10">
-            <v>80</v>
-          </cell>
-          <cell r="Q10">
-            <v>10.6648</v>
-          </cell>
-          <cell r="R10">
-            <v>112.36999999999999</v>
-          </cell>
-          <cell r="S10">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>ВАР КЛАССИЧЕСКАЯ ПО-Ч ЦО ЗА 1.6КГ K3.2 ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C11">
-            <v>9.7739999999999991</v>
-          </cell>
-          <cell r="D11">
-            <v>203.393</v>
-          </cell>
-          <cell r="E11">
-            <v>92.781000000000006</v>
-          </cell>
-          <cell r="F11">
-            <v>99.143000000000001</v>
-          </cell>
-          <cell r="G11">
-            <v>126.667</v>
-          </cell>
-          <cell r="H11">
-            <v>1</v>
-          </cell>
-          <cell r="I11">
-            <v>30</v>
-          </cell>
-          <cell r="J11">
-            <v>1030112635</v>
-          </cell>
-          <cell r="M11">
-            <v>92.781000000000006</v>
-          </cell>
-          <cell r="P11">
-            <v>120</v>
-          </cell>
-          <cell r="Q11">
-            <v>18.5562</v>
-          </cell>
-          <cell r="R11">
-            <v>151.98100000000002</v>
-          </cell>
-          <cell r="S11">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>ВАР МОЛОЧНАЯ ПО-Ч НМО 1 КГ К3  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C12">
-            <v>568.62800000000004</v>
-          </cell>
-          <cell r="D12">
-            <v>30.692</v>
-          </cell>
-          <cell r="E12">
-            <v>102.172</v>
-          </cell>
-          <cell r="F12">
-            <v>555.36</v>
-          </cell>
-          <cell r="G12">
-            <v>561.56200000000001</v>
-          </cell>
-          <cell r="H12">
-            <v>1</v>
-          </cell>
-          <cell r="I12">
-            <v>75</v>
-          </cell>
-          <cell r="J12">
-            <v>1030115552</v>
-          </cell>
-          <cell r="M12">
-            <v>102.172</v>
-          </cell>
-          <cell r="P12">
-            <v>80</v>
-          </cell>
-          <cell r="Q12">
-            <v>20.4344</v>
-          </cell>
-          <cell r="R12">
-            <v>-226.67200000000003</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>ВАР МОЛОЧНАЯ ПО-ЧЕ НМО ШТ 0.4КГ К2.4  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C13">
-            <v>693</v>
-          </cell>
-          <cell r="D13">
-            <v>552</v>
-          </cell>
-          <cell r="E13">
-            <v>391</v>
-          </cell>
-          <cell r="F13">
-            <v>615</v>
-          </cell>
-          <cell r="G13">
-            <v>634</v>
-          </cell>
-          <cell r="H13">
-            <v>0.4</v>
-          </cell>
-          <cell r="I13">
-            <v>75</v>
-          </cell>
-          <cell r="J13">
-            <v>1030115404</v>
-          </cell>
-          <cell r="M13">
-            <v>391</v>
-          </cell>
-          <cell r="P13">
-            <v>500</v>
-          </cell>
-          <cell r="Q13">
-            <v>78.2</v>
-          </cell>
-          <cell r="R13">
-            <v>449</v>
-          </cell>
-          <cell r="S13">
-            <v>200</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>ВЕТЧ МРАМОРНАЯ ПО-ЧЕРКИЗОВСКИ ШТ 0,4 КГ  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C14">
-            <v>182</v>
-          </cell>
-          <cell r="D14">
-            <v>552</v>
-          </cell>
-          <cell r="E14">
-            <v>111</v>
-          </cell>
-          <cell r="F14">
-            <v>626</v>
-          </cell>
-          <cell r="G14">
-            <v>633</v>
-          </cell>
-          <cell r="H14">
-            <v>0.4</v>
-          </cell>
-          <cell r="I14">
-            <v>75</v>
-          </cell>
-          <cell r="J14">
-            <v>1030804004</v>
-          </cell>
-          <cell r="M14">
-            <v>111</v>
-          </cell>
-          <cell r="Q14">
-            <v>22.2</v>
-          </cell>
-          <cell r="R14">
-            <v>-182</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>ВК БАЛЫКОВАЯ ПО-ЧЕРКИЗ СРЕЗ ШТ0,3 К1,8  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C15">
-            <v>185</v>
-          </cell>
-          <cell r="D15">
-            <v>450</v>
-          </cell>
-          <cell r="E15">
-            <v>73</v>
-          </cell>
-          <cell r="F15">
-            <v>451</v>
-          </cell>
-          <cell r="G15">
-            <v>457</v>
-          </cell>
-          <cell r="H15">
-            <v>0.3</v>
-          </cell>
-          <cell r="I15">
-            <v>45</v>
-          </cell>
-          <cell r="J15">
-            <v>1030419235</v>
-          </cell>
-          <cell r="M15">
-            <v>73</v>
-          </cell>
-          <cell r="Q15">
-            <v>14.6</v>
-          </cell>
-          <cell r="R15">
-            <v>-159</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>ВК СЕРВ ГОСТ СРЕЗ ФИБ ВУ ШТ 0.5КГ К2  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C16">
-            <v>220</v>
-          </cell>
-          <cell r="E16">
-            <v>132</v>
-          </cell>
-          <cell r="F16">
-            <v>90</v>
-          </cell>
-          <cell r="G16">
-            <v>93</v>
-          </cell>
-          <cell r="H16">
-            <v>0.5</v>
-          </cell>
-          <cell r="I16">
-            <v>45</v>
-          </cell>
-          <cell r="J16">
-            <v>1030412236</v>
-          </cell>
-          <cell r="M16">
-            <v>132</v>
-          </cell>
-          <cell r="P16">
-            <v>200</v>
-          </cell>
-          <cell r="Q16">
-            <v>26.4</v>
-          </cell>
-          <cell r="R16">
-            <v>238</v>
-          </cell>
-          <cell r="S16">
-            <v>250</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>КОПЧ БЕКОН НАР ВУ ШТ 0.18КГ К1.8  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C17">
-            <v>881</v>
-          </cell>
-          <cell r="D17">
-            <v>950</v>
-          </cell>
-          <cell r="E17">
-            <v>204</v>
-          </cell>
-          <cell r="F17">
-            <v>1163</v>
-          </cell>
-          <cell r="G17">
-            <v>1195</v>
-          </cell>
-          <cell r="H17">
-            <v>0.18</v>
-          </cell>
-          <cell r="I17">
-            <v>90</v>
-          </cell>
-          <cell r="J17">
-            <v>1030712385</v>
-          </cell>
-          <cell r="M17">
-            <v>204</v>
-          </cell>
-          <cell r="Q17">
-            <v>40.799999999999997</v>
-          </cell>
-          <cell r="R17">
-            <v>-347</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>КОПЧ ГРУДИНКА ПО-ЧЕРК ВУ ШТ 0.3КГ К1.8  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="H18">
-            <v>0.3</v>
-          </cell>
-          <cell r="I18">
-            <v>60</v>
-          </cell>
-          <cell r="J18">
-            <v>1030709904</v>
-          </cell>
-          <cell r="M18">
-            <v>0</v>
-          </cell>
-          <cell r="Q18">
-            <v>0</v>
-          </cell>
-          <cell r="R18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>СВ ФУЭТ ЭКСТРА 0.15КГ К0.9  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C19">
-            <v>112</v>
-          </cell>
-          <cell r="E19">
-            <v>60</v>
-          </cell>
-          <cell r="F19">
-            <v>2</v>
-          </cell>
-          <cell r="G19">
-            <v>2</v>
-          </cell>
-          <cell r="H19">
-            <v>0</v>
-          </cell>
-          <cell r="I19">
-            <v>90</v>
-          </cell>
-          <cell r="J19" t="str">
-            <v>НЕ ЗАКАЗЫВАТЬ / 1030633904</v>
-          </cell>
-          <cell r="M19">
-            <v>60</v>
-          </cell>
-          <cell r="Q19">
-            <v>12</v>
-          </cell>
-          <cell r="R19">
-            <v>238</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>СК БОГОРОДСКАЯ ПРЕСС ФИБ ВУ ШТ0.3КГ К3.6  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C20">
-            <v>585</v>
-          </cell>
-          <cell r="D20">
-            <v>600</v>
-          </cell>
-          <cell r="E20">
-            <v>184</v>
-          </cell>
-          <cell r="F20">
-            <v>1163</v>
-          </cell>
-          <cell r="G20">
-            <v>1172</v>
-          </cell>
-          <cell r="H20">
-            <v>0.3</v>
-          </cell>
-          <cell r="I20">
-            <v>150</v>
-          </cell>
-          <cell r="J20">
-            <v>1030686740</v>
-          </cell>
-          <cell r="M20">
-            <v>184</v>
-          </cell>
-          <cell r="Q20">
-            <v>36.799999999999997</v>
-          </cell>
-          <cell r="R20">
-            <v>-427</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>СК БОРОДИНСКАЯ СРЕЗ ФИБ ВУ 0.3КГ ШТ К3.6  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C21">
-            <v>774</v>
-          </cell>
-          <cell r="D21">
-            <v>216</v>
-          </cell>
-          <cell r="E21">
-            <v>215</v>
-          </cell>
-          <cell r="F21">
-            <v>779</v>
-          </cell>
-          <cell r="G21">
-            <v>786</v>
-          </cell>
-          <cell r="H21">
-            <v>0.3</v>
-          </cell>
-          <cell r="I21">
-            <v>135</v>
-          </cell>
-          <cell r="J21">
-            <v>1030686857</v>
-          </cell>
-          <cell r="M21">
-            <v>215</v>
-          </cell>
-          <cell r="P21">
-            <v>300</v>
-          </cell>
-          <cell r="Q21">
-            <v>43</v>
-          </cell>
-          <cell r="R21">
-            <v>-219</v>
-          </cell>
-          <cell r="S21">
-            <v>200</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>СК БРАУНШВЕЙГСКАЯ ГОСТ БО СРЕЗ ШТ 0,2КГ  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C22">
-            <v>588</v>
-          </cell>
-          <cell r="E22">
-            <v>87</v>
-          </cell>
-          <cell r="F22">
-            <v>378</v>
-          </cell>
-          <cell r="G22">
-            <v>384</v>
-          </cell>
-          <cell r="H22">
-            <v>0.2</v>
-          </cell>
-          <cell r="I22">
-            <v>90</v>
-          </cell>
-          <cell r="J22">
-            <v>1030654104</v>
-          </cell>
-          <cell r="M22">
-            <v>87</v>
-          </cell>
-          <cell r="P22">
-            <v>40</v>
-          </cell>
-          <cell r="Q22">
-            <v>17.399999999999999</v>
-          </cell>
-          <cell r="R22">
-            <v>-70</v>
-          </cell>
-          <cell r="S22">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>СК ОНЕЖСКАЯ СРЕЗ ФИБ ВУ ШТ 0.3КГ K1.8 ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C23">
-            <v>233</v>
-          </cell>
-          <cell r="D23">
-            <v>198</v>
-          </cell>
-          <cell r="E23">
-            <v>78</v>
-          </cell>
-          <cell r="F23">
-            <v>323</v>
-          </cell>
-          <cell r="G23">
-            <v>329</v>
-          </cell>
-          <cell r="H23">
-            <v>0.3</v>
-          </cell>
-          <cell r="I23">
-            <v>135</v>
-          </cell>
-          <cell r="J23">
-            <v>1030686241</v>
-          </cell>
-          <cell r="M23">
-            <v>78</v>
-          </cell>
-          <cell r="P23">
-            <v>100</v>
-          </cell>
-          <cell r="Q23">
-            <v>15.6</v>
-          </cell>
-          <cell r="R23">
-            <v>-111</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>СК САЛЬЧИЧОН НАРЕЗ ФИБ ЗА ШТ 0.1КГ К1.2  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="D24">
-            <v>120</v>
-          </cell>
-          <cell r="E24">
-            <v>116</v>
-          </cell>
-          <cell r="F24">
-            <v>76</v>
-          </cell>
-          <cell r="G24">
-            <v>88</v>
-          </cell>
-          <cell r="H24">
-            <v>0.1</v>
-          </cell>
-          <cell r="I24">
-            <v>90</v>
-          </cell>
-          <cell r="J24">
-            <v>1030650028</v>
-          </cell>
-          <cell r="M24">
-            <v>116</v>
-          </cell>
-          <cell r="P24">
-            <v>120</v>
-          </cell>
-          <cell r="Q24">
-            <v>23.2</v>
-          </cell>
-          <cell r="R24">
-            <v>268</v>
-          </cell>
-          <cell r="S24">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>СК САЛЬЧИЧОН С РОЗОВЫМ ПЕРЦ. СРЕЗ ШТ 0,3  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C25">
-            <v>186</v>
-          </cell>
-          <cell r="D25">
-            <v>198</v>
-          </cell>
-          <cell r="E25">
-            <v>75</v>
-          </cell>
-          <cell r="F25">
-            <v>212</v>
-          </cell>
-          <cell r="G25">
-            <v>218</v>
-          </cell>
-          <cell r="H25">
-            <v>0.3</v>
-          </cell>
-          <cell r="I25">
-            <v>135</v>
-          </cell>
-          <cell r="J25">
-            <v>1030657419</v>
-          </cell>
-          <cell r="M25">
-            <v>75</v>
-          </cell>
-          <cell r="P25">
-            <v>120</v>
-          </cell>
-          <cell r="Q25">
-            <v>15</v>
-          </cell>
-          <cell r="R25">
-            <v>-32</v>
-          </cell>
-          <cell r="S25">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>СК САЛЬЧИЧОН С РОЗОВЫМ ПЕРЦЕМ НАР ШТ 85Г  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="D26">
-            <v>60</v>
-          </cell>
-          <cell r="E26">
-            <v>43</v>
-          </cell>
-          <cell r="F26">
-            <v>28</v>
-          </cell>
-          <cell r="G26">
-            <v>40</v>
-          </cell>
-          <cell r="H26">
-            <v>8.5000000000000006E-2</v>
-          </cell>
-          <cell r="I26">
-            <v>90</v>
-          </cell>
-          <cell r="J26">
-            <v>1030657628</v>
-          </cell>
-          <cell r="M26">
-            <v>43</v>
-          </cell>
-          <cell r="P26">
-            <v>80</v>
-          </cell>
-          <cell r="Q26">
-            <v>8.6</v>
-          </cell>
-          <cell r="R26">
-            <v>64</v>
-          </cell>
-          <cell r="S26">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>СК САЛЬЧИЧОН СРЕЗ ФИБ ВУ ШТ 0,3 КГ ЧЕРКИЗОВО (ПРЕМИУМ)</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C27">
-            <v>292</v>
-          </cell>
-          <cell r="D27">
-            <v>198</v>
-          </cell>
-          <cell r="E27">
-            <v>70</v>
-          </cell>
-          <cell r="F27">
-            <v>399</v>
-          </cell>
-          <cell r="G27">
-            <v>405</v>
-          </cell>
-          <cell r="H27">
-            <v>0.3</v>
-          </cell>
-          <cell r="I27">
-            <v>135</v>
-          </cell>
-          <cell r="J27">
-            <v>1030679319</v>
-          </cell>
-          <cell r="M27">
-            <v>70</v>
-          </cell>
-          <cell r="Q27">
-            <v>14</v>
-          </cell>
-          <cell r="R27">
-            <v>-119</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>СК САЛЯМИНИ ВУ ШТ 0.18 КГ  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C28">
-            <v>258</v>
-          </cell>
-          <cell r="E28">
-            <v>218</v>
-          </cell>
-          <cell r="H28">
-            <v>0.18</v>
-          </cell>
-          <cell r="I28">
-            <v>150</v>
-          </cell>
-          <cell r="J28">
-            <v>1030638204</v>
-          </cell>
-          <cell r="M28">
-            <v>218</v>
-          </cell>
-          <cell r="Q28">
-            <v>43.6</v>
-          </cell>
-          <cell r="R28">
-            <v>872</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>СК СЕРВЕЛЕТТИ ПРЕСС СРЕЗ БО ВУ ШТ 0.25КГ  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C29">
-            <v>289</v>
-          </cell>
-          <cell r="D29">
-            <v>228</v>
-          </cell>
-          <cell r="E29">
-            <v>164</v>
-          </cell>
-          <cell r="F29">
-            <v>289</v>
-          </cell>
-          <cell r="G29">
-            <v>295</v>
-          </cell>
-          <cell r="H29">
-            <v>0.25</v>
-          </cell>
-          <cell r="I29">
-            <v>120</v>
-          </cell>
-          <cell r="J29">
-            <v>1030670844</v>
-          </cell>
-          <cell r="M29">
-            <v>164</v>
-          </cell>
-          <cell r="P29">
-            <v>300</v>
-          </cell>
-          <cell r="Q29">
-            <v>32.799999999999997</v>
-          </cell>
-          <cell r="R29">
-            <v>67</v>
-          </cell>
-          <cell r="S29">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>СОС ВЕНСКИЕ БО ЗА ПАК 1.25КГ K5 ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C30">
-            <v>15.885999999999999</v>
-          </cell>
-          <cell r="D30">
-            <v>147.29499999999999</v>
-          </cell>
-          <cell r="E30">
-            <v>61.348999999999997</v>
-          </cell>
-          <cell r="F30">
-            <v>108.617</v>
-          </cell>
-          <cell r="G30">
-            <v>123.53</v>
-          </cell>
-          <cell r="H30">
-            <v>1</v>
-          </cell>
-          <cell r="I30">
-            <v>35</v>
-          </cell>
-          <cell r="J30">
-            <v>1030228316</v>
-          </cell>
-          <cell r="M30">
-            <v>61.348999999999997</v>
-          </cell>
-          <cell r="P30">
-            <v>60</v>
-          </cell>
-          <cell r="Q30">
-            <v>12.2698</v>
-          </cell>
-          <cell r="R30">
-            <v>76.779000000000011</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>СОС КОПЧ ПО-Ч ЛОТ ПМО ЗА ШТ 0.4КГ K1.6  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C31">
-            <v>101</v>
-          </cell>
-          <cell r="D31">
-            <v>804</v>
-          </cell>
-          <cell r="E31">
-            <v>253</v>
-          </cell>
-          <cell r="F31">
-            <v>870</v>
-          </cell>
-          <cell r="G31">
-            <v>912</v>
-          </cell>
-          <cell r="H31">
-            <v>0.4</v>
-          </cell>
-          <cell r="I31">
-            <v>41</v>
-          </cell>
-          <cell r="J31">
-            <v>1030234120</v>
-          </cell>
-          <cell r="M31">
-            <v>253</v>
-          </cell>
-          <cell r="P31">
-            <v>200</v>
-          </cell>
-          <cell r="Q31">
-            <v>50.6</v>
-          </cell>
-          <cell r="R31">
-            <v>-58</v>
-          </cell>
-          <cell r="S31">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>СОС МОЛОЧНЫЕ ПО-Ч ПМО ЗА ЛОТ ШТ 0.45КГ K1.8 ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C32">
-            <v>51</v>
-          </cell>
-          <cell r="D32">
-            <v>400</v>
-          </cell>
-          <cell r="E32">
-            <v>212</v>
-          </cell>
-          <cell r="F32">
-            <v>180</v>
-          </cell>
-          <cell r="G32">
-            <v>255</v>
-          </cell>
-          <cell r="H32">
-            <v>0.45</v>
-          </cell>
-          <cell r="I32">
-            <v>31</v>
-          </cell>
-          <cell r="J32">
-            <v>1030228620</v>
-          </cell>
-          <cell r="M32">
-            <v>212</v>
-          </cell>
-          <cell r="P32">
-            <v>200</v>
-          </cell>
-          <cell r="Q32">
-            <v>42.4</v>
-          </cell>
-          <cell r="R32">
-            <v>468</v>
-          </cell>
-          <cell r="S32">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>СОС СЛИВОЧНЫЕ ГОСТ ЦО ЗА ЛОТ ШТ 0.45КГ K1.8 ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="D33">
-            <v>272</v>
-          </cell>
-          <cell r="E33">
-            <v>261</v>
-          </cell>
-          <cell r="F33">
-            <v>41</v>
-          </cell>
-          <cell r="G33">
-            <v>76</v>
-          </cell>
-          <cell r="H33">
-            <v>0.45</v>
-          </cell>
-          <cell r="I33">
-            <v>30</v>
-          </cell>
-          <cell r="J33">
-            <v>1030212603</v>
-          </cell>
-          <cell r="M33">
-            <v>261</v>
-          </cell>
-          <cell r="P33">
-            <v>300</v>
-          </cell>
-          <cell r="Q33">
-            <v>52.2</v>
-          </cell>
-          <cell r="R33">
-            <v>703</v>
-          </cell>
-          <cell r="S33">
-            <v>200</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>У_ВАР АРОМАТНАЯ ПО-Ч ЦО ЗА 1.6КГ K3.2 ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C34">
-            <v>14.542</v>
-          </cell>
-          <cell r="E34">
-            <v>14.542</v>
-          </cell>
-          <cell r="H34">
-            <v>0</v>
-          </cell>
-          <cell r="J34" t="str">
-            <v>уценка</v>
-          </cell>
-          <cell r="M34">
-            <v>14.542</v>
-          </cell>
-          <cell r="Q34">
-            <v>2.9083999999999999</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>У_ВАР КЛАССИЧЕСКАЯ ПО-Ч ЦО ЗА 1.6КГ K3.2 ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C35">
-            <v>8.0850000000000009</v>
-          </cell>
-          <cell r="E35">
-            <v>8.0850000000000009</v>
-          </cell>
-          <cell r="H35">
-            <v>0</v>
-          </cell>
-          <cell r="J35" t="str">
-            <v>уценка</v>
-          </cell>
-          <cell r="M35">
-            <v>8.0850000000000009</v>
-          </cell>
-          <cell r="Q35">
-            <v>1.6170000000000002</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>У_СОС КОПЧ ПО-Ч ЛОТ ПМО ЗА ШТ 0.4КГ K1.6  ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C36">
-            <v>61</v>
-          </cell>
-          <cell r="E36">
-            <v>61</v>
-          </cell>
-          <cell r="H36">
-            <v>0</v>
-          </cell>
-          <cell r="J36" t="str">
-            <v>уценка</v>
-          </cell>
-          <cell r="M36">
-            <v>61</v>
-          </cell>
-          <cell r="Q36">
-            <v>12.2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>У_СОС МОЛОЧНЫЕ ПО-Ч ПМО ЗА ЛОТ ШТ 0.45КГ K1.8 ЧЕРКИЗОВО</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C37">
-            <v>22</v>
-          </cell>
-          <cell r="E37">
-            <v>22</v>
-          </cell>
-          <cell r="H37">
-            <v>0</v>
-          </cell>
-          <cell r="J37" t="str">
-            <v>уценка</v>
-          </cell>
-          <cell r="M37">
-            <v>22</v>
-          </cell>
-          <cell r="Q37">
-            <v>4.4000000000000004</v>
-          </cell>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -20758,7 +20758,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S39" sqref="S39"/>
+      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21278,11 +21278,11 @@
       <c r="T6" s="15"/>
       <c r="U6" s="13"/>
       <c r="V6" s="13" t="e">
-        <f>(F6+O6+R6)/Q6</f>
+        <f t="shared" ref="V6:V37" si="4">(F6+O6+R6)/Q6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W6" s="13" t="e">
-        <f>(F6+O6)/Q6</f>
+        <f t="shared" ref="W6:W37" si="5">(F6+O6)/Q6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X6" s="13">
@@ -21370,7 +21370,7 @@
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13">
-        <f t="shared" ref="Q7:Q37" si="4">E7/5</f>
+        <f t="shared" ref="Q7:Q37" si="6">E7/5</f>
         <v>0</v>
       </c>
       <c r="R7" s="15"/>
@@ -21378,11 +21378,11 @@
       <c r="T7" s="15"/>
       <c r="U7" s="13"/>
       <c r="V7" s="13" t="e">
-        <f>(F7+O7+R7)/Q7</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W7" s="13" t="e">
-        <f>(F7+O7)/Q7</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X7" s="13">
@@ -21470,7 +21470,7 @@
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R8" s="15"/>
@@ -21478,11 +21478,11 @@
       <c r="T8" s="15"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13" t="e">
-        <f>(F8+O8+R8)/Q8</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W8" s="13" t="e">
-        <f>(F8+O8)/Q8</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X8" s="13">
@@ -21570,7 +21570,7 @@
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R9" s="15"/>
@@ -21578,11 +21578,11 @@
       <c r="T9" s="15"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13" t="e">
-        <f>(F9+O9+R9)/Q9</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W9" s="13" t="e">
-        <f>(F9+O9)/Q9</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X9" s="13">
@@ -21680,15 +21680,15 @@
         <v>80</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10.6648</v>
       </c>
       <c r="R10" s="5">
-        <f>VLOOKUP(A10,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A10,[2]Sheet!$A:$S,19,0)</f>
         <v>30</v>
       </c>
       <c r="S10" s="5">
-        <f>IF(G10&lt;1,MROUND(R10*G10,AK10)/AJ10,MROUND(R10,AK10))</f>
+        <f t="shared" ref="S10:S18" si="7">IF(G10&lt;1,MROUND(R10*G10,AK10)/AJ10,MROUND(R10,AK10))</f>
         <v>28.8</v>
       </c>
       <c r="T10" s="5"/>
@@ -21696,11 +21696,11 @@
         <v>80</v>
       </c>
       <c r="V10" s="1">
-        <f>(F10+O10+R10)/Q10</f>
+        <f t="shared" si="4"/>
         <v>14.81087315280174</v>
       </c>
       <c r="W10" s="1">
-        <f>(F10+O10)/Q10</f>
+        <f t="shared" si="5"/>
         <v>11.997880879153852</v>
       </c>
       <c r="X10" s="1">
@@ -21738,19 +21738,19 @@
         <v>46</v>
       </c>
       <c r="AI10" s="1">
-        <f>G10*R10</f>
+        <f t="shared" ref="AI10:AI18" si="8">G10*R10</f>
         <v>30</v>
       </c>
       <c r="AJ10" s="10">
-        <f>VLOOKUP(I10,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I10,[3]Sheet!$I:$AJ,27,0)</f>
         <v>1.6</v>
       </c>
       <c r="AK10" s="10">
-        <f>VLOOKUP(I10,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I10,[3]Sheet!$I:$AJ,28,0)</f>
         <v>3.2</v>
       </c>
       <c r="AL10" s="1">
-        <f>IF(G10&lt;1,AJ10*S10,S10)</f>
+        <f t="shared" ref="AL10:AL18" si="9">IF(G10&lt;1,AJ10*S10,S10)</f>
         <v>28.8</v>
       </c>
       <c r="AM10" s="1"/>
@@ -21812,15 +21812,15 @@
         <v>120</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18.5562</v>
       </c>
       <c r="R11" s="5">
-        <f>VLOOKUP(A11,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A11,[2]Sheet!$A:$S,19,0)</f>
         <v>60</v>
       </c>
       <c r="S11" s="5">
-        <f>IF(G11&lt;1,MROUND(R11*G11,AK11)/AJ11,MROUND(R11,AK11))</f>
+        <f t="shared" si="7"/>
         <v>60.800000000000004</v>
       </c>
       <c r="T11" s="5"/>
@@ -21828,11 +21828,11 @@
         <v>60</v>
       </c>
       <c r="V11" s="1">
-        <f>(F11+O11+R11)/Q11</f>
+        <f t="shared" si="4"/>
         <v>18.721990493743331</v>
       </c>
       <c r="W11" s="1">
-        <f>(F11+O11)/Q11</f>
+        <f t="shared" si="5"/>
         <v>15.488569858052832</v>
       </c>
       <c r="X11" s="1">
@@ -21870,19 +21870,19 @@
         <v>48</v>
       </c>
       <c r="AI11" s="1">
-        <f>G11*R11</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="AJ11" s="10">
-        <f>VLOOKUP(I11,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I11,[3]Sheet!$I:$AJ,27,0)</f>
         <v>1.6</v>
       </c>
       <c r="AK11" s="10">
-        <f>VLOOKUP(I11,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I11,[3]Sheet!$I:$AJ,28,0)</f>
         <v>3.2</v>
       </c>
       <c r="AL11" s="1">
-        <f>IF(G11&lt;1,AJ11*S11,S11)</f>
+        <f t="shared" si="9"/>
         <v>60.800000000000004</v>
       </c>
       <c r="AM11" s="1"/>
@@ -21944,15 +21944,15 @@
         <v>80</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20.4344</v>
       </c>
       <c r="R12" s="5">
-        <f>VLOOKUP(A12,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A12,[2]Sheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="S12" s="5">
-        <f>IF(G12&lt;1,MROUND(R12*G12,AK12)/AJ12,MROUND(R12,AK12))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T12" s="5"/>
@@ -21960,11 +21960,11 @@
         <v>80</v>
       </c>
       <c r="V12" s="1">
-        <f>(F12+O12+R12)/Q12</f>
+        <f t="shared" si="4"/>
         <v>33.660494068825116</v>
       </c>
       <c r="W12" s="1">
-        <f>(F12+O12)/Q12</f>
+        <f t="shared" si="5"/>
         <v>33.660494068825116</v>
       </c>
       <c r="X12" s="1">
@@ -22002,19 +22002,19 @@
         <v>54</v>
       </c>
       <c r="AI12" s="1">
-        <f>G12*R12</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="10">
-        <f>VLOOKUP(I12,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I12,[3]Sheet!$I:$AJ,27,0)</f>
         <v>1</v>
       </c>
       <c r="AK12" s="10">
-        <f>VLOOKUP(I12,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I12,[3]Sheet!$I:$AJ,28,0)</f>
         <v>3</v>
       </c>
       <c r="AL12" s="1">
-        <f>IF(G12&lt;1,AJ12*S12,S12)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM12" s="1"/>
@@ -22076,15 +22076,15 @@
         <v>500</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>78.2</v>
       </c>
       <c r="R13" s="5">
-        <f>VLOOKUP(A13,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A13,[2]Sheet!$A:$S,19,0)</f>
         <v>200</v>
       </c>
       <c r="S13" s="5">
-        <f>IF(G13&lt;1,MROUND(R13*G13,AK13)/AJ13,MROUND(R13,AK13))</f>
+        <f t="shared" si="7"/>
         <v>198</v>
       </c>
       <c r="T13" s="5"/>
@@ -22092,11 +22092,11 @@
         <v>400</v>
       </c>
       <c r="V13" s="1">
-        <f>(F13+O13+R13)/Q13</f>
+        <f t="shared" si="4"/>
         <v>15.626598465473146</v>
       </c>
       <c r="W13" s="1">
-        <f>(F13+O13)/Q13</f>
+        <f t="shared" si="5"/>
         <v>13.069053708439897</v>
       </c>
       <c r="X13" s="1">
@@ -22132,19 +22132,19 @@
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1">
-        <f>G13*R13</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="AJ13" s="10">
-        <f>VLOOKUP(I13,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I13,[3]Sheet!$I:$AJ,27,0)</f>
         <v>0.4</v>
       </c>
       <c r="AK13" s="10">
-        <f>VLOOKUP(I13,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I13,[3]Sheet!$I:$AJ,28,0)</f>
         <v>2.4</v>
       </c>
       <c r="AL13" s="1">
-        <f>IF(G13&lt;1,AJ13*S13,S13)</f>
+        <f t="shared" si="9"/>
         <v>79.2</v>
       </c>
       <c r="AM13" s="1"/>
@@ -22204,15 +22204,15 @@
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22.2</v>
       </c>
       <c r="R14" s="5">
-        <f>VLOOKUP(A14,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A14,[2]Sheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="S14" s="5">
-        <f>IF(G14&lt;1,MROUND(R14*G14,AK14)/AJ14,MROUND(R14,AK14))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T14" s="5"/>
@@ -22220,11 +22220,11 @@
         <v>0</v>
       </c>
       <c r="V14" s="1">
-        <f>(F14+O14+R14)/Q14</f>
+        <f t="shared" si="4"/>
         <v>34.864864864864863</v>
       </c>
       <c r="W14" s="1">
-        <f>(F14+O14)/Q14</f>
+        <f t="shared" si="5"/>
         <v>34.864864864864863</v>
       </c>
       <c r="X14" s="1">
@@ -22262,19 +22262,19 @@
         <v>54</v>
       </c>
       <c r="AI14" s="1">
-        <f>G14*R14</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ14" s="10">
-        <f>VLOOKUP(I14,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I14,[3]Sheet!$I:$AJ,27,0)</f>
         <v>0.4</v>
       </c>
       <c r="AK14" s="10">
-        <f>VLOOKUP(I14,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I14,[3]Sheet!$I:$AJ,28,0)</f>
         <v>2.4</v>
       </c>
       <c r="AL14" s="1">
-        <f>IF(G14&lt;1,AJ14*S14,S14)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM14" s="1"/>
@@ -22332,15 +22332,15 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14.6</v>
       </c>
       <c r="R15" s="5">
-        <f>VLOOKUP(A15,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A15,[2]Sheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="S15" s="5">
-        <f>IF(G15&lt;1,MROUND(R15*G15,AK15)/AJ15,MROUND(R15,AK15))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T15" s="5"/>
@@ -22348,11 +22348,11 @@
         <v>0</v>
       </c>
       <c r="V15" s="1">
-        <f>(F15+O15+R15)/Q15</f>
+        <f t="shared" si="4"/>
         <v>36.917808219178085</v>
       </c>
       <c r="W15" s="1">
-        <f>(F15+O15)/Q15</f>
+        <f t="shared" si="5"/>
         <v>36.917808219178085</v>
       </c>
       <c r="X15" s="1">
@@ -22390,19 +22390,19 @@
         <v>81</v>
       </c>
       <c r="AI15" s="1">
-        <f>G15*R15</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ15" s="10">
-        <f>VLOOKUP(I15,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I15,[3]Sheet!$I:$AJ,27,0)</f>
         <v>0.3</v>
       </c>
       <c r="AK15" s="10">
-        <f>VLOOKUP(I15,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I15,[3]Sheet!$I:$AJ,28,0)</f>
         <v>1.8</v>
       </c>
       <c r="AL15" s="1">
-        <f>IF(G15&lt;1,AJ15*S15,S15)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM15" s="1"/>
@@ -22462,15 +22462,15 @@
         <v>200</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26.4</v>
       </c>
       <c r="R16" s="5">
-        <f>VLOOKUP(A16,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A16,[2]Sheet!$A:$S,19,0)</f>
         <v>250</v>
       </c>
       <c r="S16" s="5">
-        <f>IF(G16&lt;1,MROUND(R16*G16,AK16)/AJ16,MROUND(R16,AK16))</f>
+        <f t="shared" si="7"/>
         <v>252</v>
       </c>
       <c r="T16" s="5"/>
@@ -22478,11 +22478,11 @@
         <v>150</v>
       </c>
       <c r="V16" s="1">
-        <f>(F16+O16+R16)/Q16</f>
+        <f t="shared" si="4"/>
         <v>19.393939393939394</v>
       </c>
       <c r="W16" s="1">
-        <f>(F16+O16)/Q16</f>
+        <f t="shared" si="5"/>
         <v>9.9242424242424256</v>
       </c>
       <c r="X16" s="1">
@@ -22518,19 +22518,19 @@
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1">
-        <f>G16*R16</f>
+        <f t="shared" si="8"/>
         <v>125</v>
       </c>
       <c r="AJ16" s="10">
-        <f>VLOOKUP(I16,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I16,[3]Sheet!$I:$AJ,27,0)</f>
         <v>0.5</v>
       </c>
       <c r="AK16" s="10">
-        <f>VLOOKUP(I16,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I16,[3]Sheet!$I:$AJ,28,0)</f>
         <v>2</v>
       </c>
       <c r="AL16" s="1">
-        <f>IF(G16&lt;1,AJ16*S16,S16)</f>
+        <f t="shared" si="9"/>
         <v>126</v>
       </c>
       <c r="AM16" s="1"/>
@@ -22588,15 +22588,15 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40.799999999999997</v>
       </c>
       <c r="R17" s="5">
-        <f>VLOOKUP(A17,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A17,[2]Sheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="S17" s="5">
-        <f>IF(G17&lt;1,MROUND(R17*G17,AK17)/AJ17,MROUND(R17,AK17))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T17" s="5"/>
@@ -22604,11 +22604,11 @@
         <v>0</v>
       </c>
       <c r="V17" s="1">
-        <f>(F17+O17+R17)/Q17</f>
+        <f t="shared" si="4"/>
         <v>39.142156862745104</v>
       </c>
       <c r="W17" s="1">
-        <f>(F17+O17)/Q17</f>
+        <f t="shared" si="5"/>
         <v>39.142156862745104</v>
       </c>
       <c r="X17" s="1">
@@ -22646,19 +22646,19 @@
         <v>54</v>
       </c>
       <c r="AI17" s="1">
-        <f>G17*R17</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ17" s="10">
-        <f>VLOOKUP(I17,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I17,[3]Sheet!$I:$AJ,27,0)</f>
         <v>0.18</v>
       </c>
       <c r="AK17" s="10">
-        <f>VLOOKUP(I17,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I17,[3]Sheet!$I:$AJ,28,0)</f>
         <v>1.8</v>
       </c>
       <c r="AL17" s="1">
-        <f>IF(G17&lt;1,AJ17*S17,S17)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM17" s="1"/>
@@ -22708,15 +22708,15 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R18" s="5">
-        <f>VLOOKUP(A18,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A18,[2]Sheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="S18" s="5">
-        <f>IF(G18&lt;1,MROUND(R18*G18,AK18)/AJ18,MROUND(R18,AK18))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T18" s="5"/>
@@ -22724,11 +22724,11 @@
         <v>0</v>
       </c>
       <c r="V18" s="1" t="e">
-        <f>(F18+O18+R18)/Q18</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W18" s="1" t="e">
-        <f>(F18+O18)/Q18</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X18" s="1">
@@ -22766,19 +22766,19 @@
         <v>56</v>
       </c>
       <c r="AI18" s="1">
-        <f>G18*R18</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ18" s="10">
-        <f>VLOOKUP(I18,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I18,[3]Sheet!$I:$AJ,27,0)</f>
         <v>0.3</v>
       </c>
       <c r="AK18" s="10">
-        <f>VLOOKUP(I18,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I18,[3]Sheet!$I:$AJ,28,0)</f>
         <v>1.8</v>
       </c>
       <c r="AL18" s="1">
-        <f>IF(G18&lt;1,AJ18*S18,S18)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM18" s="1"/>
@@ -22834,11 +22834,11 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="R19" s="5">
-        <f>VLOOKUP(A19,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A19,[2]Sheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="S19" s="5"/>
@@ -22847,11 +22847,11 @@
         <v>0</v>
       </c>
       <c r="V19" s="9">
-        <f>(F19+O19+R19)/Q19</f>
+        <f t="shared" si="4"/>
         <v>4.083333333333333</v>
       </c>
       <c r="W19" s="9">
-        <f>(F19+O19)/Q19</f>
+        <f t="shared" si="5"/>
         <v>4.083333333333333</v>
       </c>
       <c r="X19" s="9">
@@ -22949,15 +22949,15 @@
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>36.799999999999997</v>
       </c>
       <c r="R20" s="5">
-        <f>VLOOKUP(A20,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A20,[2]Sheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="S20" s="5">
-        <f>IF(G20&lt;1,MROUND(R20*G20,AK20)/AJ20,MROUND(R20,AK20))</f>
+        <f t="shared" ref="S20:S27" si="10">IF(G20&lt;1,MROUND(R20*G20,AK20)/AJ20,MROUND(R20,AK20))</f>
         <v>0</v>
       </c>
       <c r="T20" s="5"/>
@@ -22965,11 +22965,11 @@
         <v>0</v>
       </c>
       <c r="V20" s="1">
-        <f>(F20+O20+R20)/Q20</f>
+        <f t="shared" si="4"/>
         <v>39.972826086956523</v>
       </c>
       <c r="W20" s="1">
-        <f>(F20+O20)/Q20</f>
+        <f t="shared" si="5"/>
         <v>39.972826086956523</v>
       </c>
       <c r="X20" s="1">
@@ -23007,19 +23007,19 @@
         <v>54</v>
       </c>
       <c r="AI20" s="1">
-        <f>G20*R20</f>
+        <f t="shared" ref="AI20:AI33" si="11">G20*R20</f>
         <v>0</v>
       </c>
       <c r="AJ20" s="10">
-        <f>VLOOKUP(I20,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I20,[3]Sheet!$I:$AJ,27,0)</f>
         <v>0.3</v>
       </c>
       <c r="AK20" s="10">
-        <f>VLOOKUP(I20,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I20,[3]Sheet!$I:$AJ,28,0)</f>
         <v>3.6</v>
       </c>
       <c r="AL20" s="1">
-        <f>IF(G20&lt;1,AJ20*S20,S20)</f>
+        <f t="shared" ref="AL20:AL27" si="12">IF(G20&lt;1,AJ20*S20,S20)</f>
         <v>0</v>
       </c>
       <c r="AM20" s="1"/>
@@ -23081,15 +23081,15 @@
         <v>300</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="R21" s="5">
-        <f>VLOOKUP(A21,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A21,[2]Sheet!$A:$S,19,0)</f>
         <v>200</v>
       </c>
       <c r="S21" s="5">
-        <f>IF(G21&lt;1,MROUND(R21*G21,AK21)/AJ21,MROUND(R21,AK21))</f>
+        <f t="shared" si="10"/>
         <v>204.00000000000003</v>
       </c>
       <c r="T21" s="5"/>
@@ -23097,11 +23097,11 @@
         <v>300</v>
       </c>
       <c r="V21" s="1">
-        <f>(F21+O21+R21)/Q21</f>
+        <f t="shared" si="4"/>
         <v>27.186046511627907</v>
       </c>
       <c r="W21" s="1">
-        <f>(F21+O21)/Q21</f>
+        <f t="shared" si="5"/>
         <v>22.534883720930232</v>
       </c>
       <c r="X21" s="1">
@@ -23139,19 +23139,19 @@
         <v>50</v>
       </c>
       <c r="AI21" s="1">
-        <f>G21*R21</f>
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="AJ21" s="10">
-        <f>VLOOKUP(I21,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I21,[3]Sheet!$I:$AJ,27,0)</f>
         <v>0.3</v>
       </c>
       <c r="AK21" s="10">
-        <f>VLOOKUP(I21,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I21,[3]Sheet!$I:$AJ,28,0)</f>
         <v>3.6</v>
       </c>
       <c r="AL21" s="1">
-        <f>IF(G21&lt;1,AJ21*S21,S21)</f>
+        <f t="shared" si="12"/>
         <v>61.2</v>
       </c>
       <c r="AM21" s="1"/>
@@ -23209,15 +23209,15 @@
         <v>40</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17.399999999999999</v>
       </c>
       <c r="R22" s="5">
-        <f>VLOOKUP(A22,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A22,[2]Sheet!$A:$S,19,0)</f>
         <v>80</v>
       </c>
       <c r="S22" s="5">
-        <f>IF(G22&lt;1,MROUND(R22*G22,AK22)/AJ22,MROUND(R22,AK22))</f>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="T22" s="5"/>
@@ -23225,11 +23225,11 @@
         <v>40</v>
       </c>
       <c r="V22" s="1">
-        <f>(F22+O22+R22)/Q22</f>
+        <f t="shared" si="4"/>
         <v>31.896551724137932</v>
       </c>
       <c r="W22" s="1">
-        <f>(F22+O22)/Q22</f>
+        <f t="shared" si="5"/>
         <v>27.298850574712645</v>
       </c>
       <c r="X22" s="1">
@@ -23267,19 +23267,19 @@
         <v>54</v>
       </c>
       <c r="AI22" s="1">
-        <f>G22*R22</f>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="AJ22" s="10">
-        <f>VLOOKUP(I22,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I22,[3]Sheet!$I:$AJ,27,0)</f>
         <v>0.2</v>
       </c>
       <c r="AK22" s="10">
-        <f>VLOOKUP(I22,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I22,[3]Sheet!$I:$AJ,28,0)</f>
         <v>1.2</v>
       </c>
       <c r="AL22" s="1">
-        <f>IF(G22&lt;1,AJ22*S22,S22)</f>
+        <f t="shared" si="12"/>
         <v>15.600000000000001</v>
       </c>
       <c r="AM22" s="1"/>
@@ -23339,15 +23339,15 @@
         <v>100</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15.6</v>
       </c>
       <c r="R23" s="5">
-        <f>VLOOKUP(A23,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A23,[2]Sheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="S23" s="5">
-        <f>IF(G23&lt;1,MROUND(R23*G23,AK23)/AJ23,MROUND(R23,AK23))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T23" s="5"/>
@@ -23355,11 +23355,11 @@
         <v>100</v>
       </c>
       <c r="V23" s="1">
-        <f>(F23+O23+R23)/Q23</f>
+        <f t="shared" si="4"/>
         <v>22.5</v>
       </c>
       <c r="W23" s="1">
-        <f>(F23+O23)/Q23</f>
+        <f t="shared" si="5"/>
         <v>22.5</v>
       </c>
       <c r="X23" s="1">
@@ -23397,19 +23397,19 @@
         <v>50</v>
       </c>
       <c r="AI23" s="1">
-        <f>G23*R23</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ23" s="10">
-        <f>VLOOKUP(I23,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I23,[3]Sheet!$I:$AJ,27,0)</f>
         <v>0.3</v>
       </c>
       <c r="AK23" s="10">
-        <f>VLOOKUP(I23,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I23,[3]Sheet!$I:$AJ,28,0)</f>
         <v>1.8</v>
       </c>
       <c r="AL23" s="1">
-        <f>IF(G23&lt;1,AJ23*S23,S23)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM23" s="1"/>
@@ -23467,15 +23467,15 @@
         <v>120</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23.2</v>
       </c>
       <c r="R24" s="5">
-        <f>VLOOKUP(A24,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A24,[2]Sheet!$A:$S,19,0)</f>
         <v>120</v>
       </c>
       <c r="S24" s="5">
-        <f>IF(G24&lt;1,MROUND(R24*G24,AK24)/AJ24,MROUND(R24,AK24))</f>
+        <f t="shared" si="10"/>
         <v>120.00000000000001</v>
       </c>
       <c r="T24" s="5"/>
@@ -23483,11 +23483,11 @@
         <v>120</v>
       </c>
       <c r="V24" s="1">
-        <f>(F24+O24+R24)/Q24</f>
+        <f t="shared" si="4"/>
         <v>12.931034482758621</v>
       </c>
       <c r="W24" s="1">
-        <f>(F24+O24)/Q24</f>
+        <f t="shared" si="5"/>
         <v>7.7586206896551726</v>
       </c>
       <c r="X24" s="1">
@@ -23525,19 +23525,19 @@
         <v>64</v>
       </c>
       <c r="AI24" s="1">
-        <f>G24*R24</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="AJ24" s="10">
-        <f>VLOOKUP(I24,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I24,[3]Sheet!$I:$AJ,27,0)</f>
         <v>0.1</v>
       </c>
       <c r="AK24" s="10">
-        <f>VLOOKUP(I24,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I24,[3]Sheet!$I:$AJ,28,0)</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="AL24" s="1">
-        <f>IF(G24&lt;1,AJ24*S24,S24)</f>
+        <f t="shared" si="12"/>
         <v>12.000000000000002</v>
       </c>
       <c r="AM24" s="1"/>
@@ -23597,15 +23597,15 @@
         <v>120</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="R25" s="5">
-        <f>VLOOKUP(A25,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A25,[2]Sheet!$A:$S,19,0)</f>
         <v>120</v>
       </c>
       <c r="S25" s="5">
-        <f>IF(G25&lt;1,MROUND(R25*G25,AK25)/AJ25,MROUND(R25,AK25))</f>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="T25" s="5"/>
@@ -23613,11 +23613,11 @@
         <v>80</v>
       </c>
       <c r="V25" s="1">
-        <f>(F25+O25+R25)/Q25</f>
+        <f t="shared" si="4"/>
         <v>27.933333333333334</v>
       </c>
       <c r="W25" s="1">
-        <f>(F25+O25)/Q25</f>
+        <f t="shared" si="5"/>
         <v>19.933333333333334</v>
       </c>
       <c r="X25" s="1">
@@ -23655,19 +23655,19 @@
         <v>50</v>
       </c>
       <c r="AI25" s="1">
-        <f>G25*R25</f>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="AJ25" s="10">
-        <f>VLOOKUP(I25,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I25,[3]Sheet!$I:$AJ,27,0)</f>
         <v>0.3</v>
       </c>
       <c r="AK25" s="10">
-        <f>VLOOKUP(I25,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I25,[3]Sheet!$I:$AJ,28,0)</f>
         <v>1.8</v>
       </c>
       <c r="AL25" s="1">
-        <f>IF(G25&lt;1,AJ25*S25,S25)</f>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="AM25" s="1"/>
@@ -23727,15 +23727,15 @@
         <v>80</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.6</v>
       </c>
       <c r="R26" s="5">
-        <f>VLOOKUP(A26,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A26,[2]Sheet!$A:$S,19,0)</f>
         <v>60</v>
       </c>
       <c r="S26" s="5">
-        <f>IF(G26&lt;1,MROUND(R26*G26,AK26)/AJ26,MROUND(R26,AK26))</f>
+        <f t="shared" si="10"/>
         <v>59.999999999999993</v>
       </c>
       <c r="T26" s="5"/>
@@ -23743,11 +23743,11 @@
         <v>80</v>
       </c>
       <c r="V26" s="1">
-        <f>(F26+O26+R26)/Q26</f>
+        <f t="shared" si="4"/>
         <v>22.790697674418606</v>
       </c>
       <c r="W26" s="1">
-        <f>(F26+O26)/Q26</f>
+        <f t="shared" si="5"/>
         <v>15.813953488372094</v>
       </c>
       <c r="X26" s="1">
@@ -23785,19 +23785,19 @@
         <v>67</v>
       </c>
       <c r="AI26" s="1">
-        <f>G26*R26</f>
+        <f t="shared" si="11"/>
         <v>5.1000000000000005</v>
       </c>
       <c r="AJ26" s="10">
-        <f>VLOOKUP(I26,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I26,[3]Sheet!$I:$AJ,27,0)</f>
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="AK26" s="10">
-        <f>VLOOKUP(I26,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I26,[3]Sheet!$I:$AJ,28,0)</f>
         <v>1.02</v>
       </c>
       <c r="AL26" s="1">
-        <f>IF(G26&lt;1,AJ26*S26,S26)</f>
+        <f t="shared" si="12"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="AM26" s="1"/>
@@ -23857,15 +23857,15 @@
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="R27" s="5">
-        <f>VLOOKUP(A27,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A27,[2]Sheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="S27" s="5">
-        <f>IF(G27&lt;1,MROUND(R27*G27,AK27)/AJ27,MROUND(R27,AK27))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T27" s="5"/>
@@ -23873,11 +23873,11 @@
         <v>0</v>
       </c>
       <c r="V27" s="1">
-        <f>(F27+O27+R27)/Q27</f>
+        <f t="shared" si="4"/>
         <v>35.428571428571431</v>
       </c>
       <c r="W27" s="1">
-        <f>(F27+O27)/Q27</f>
+        <f t="shared" si="5"/>
         <v>35.428571428571431</v>
       </c>
       <c r="X27" s="1">
@@ -23915,19 +23915,19 @@
         <v>54</v>
       </c>
       <c r="AI27" s="1">
-        <f>G27*R27</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ27" s="10">
-        <f>VLOOKUP(I27,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I27,[3]Sheet!$I:$AJ,27,0)</f>
         <v>0.3</v>
       </c>
       <c r="AK27" s="10">
-        <f>VLOOKUP(I27,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I27,[3]Sheet!$I:$AJ,28,0)</f>
         <v>1.8</v>
       </c>
       <c r="AL27" s="1">
-        <f>IF(G27&lt;1,AJ27*S27,S27)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM27" s="1"/>
@@ -23983,11 +23983,11 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>43.6</v>
       </c>
       <c r="R28" s="5">
-        <f>VLOOKUP(A28,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A28,[2]Sheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="S28" s="5"/>
@@ -23996,11 +23996,11 @@
         <v>0</v>
       </c>
       <c r="V28" s="1">
-        <f>(F28+O28+R28)/Q28</f>
+        <f t="shared" si="4"/>
         <v>6.8807339449541288E-2</v>
       </c>
       <c r="W28" s="1">
-        <f>(F28+O28)/Q28</f>
+        <f t="shared" si="5"/>
         <v>6.8807339449541288E-2</v>
       </c>
       <c r="X28" s="1">
@@ -24038,7 +24038,7 @@
         <v>79</v>
       </c>
       <c r="AI28" s="1">
-        <f>G28*R28</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ28" s="10"/>
@@ -24103,11 +24103,11 @@
         <v>300</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32.799999999999997</v>
       </c>
       <c r="R29" s="5">
-        <f>VLOOKUP(A29,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A29,[2]Sheet!$A:$S,19,0)</f>
         <v>120</v>
       </c>
       <c r="S29" s="5">
@@ -24119,11 +24119,11 @@
         <v>300</v>
       </c>
       <c r="V29" s="1">
-        <f>(F29+O29+R29)/Q29</f>
+        <f t="shared" si="4"/>
         <v>17.591463414634148</v>
       </c>
       <c r="W29" s="1">
-        <f>(F29+O29)/Q29</f>
+        <f t="shared" si="5"/>
         <v>13.932926829268293</v>
       </c>
       <c r="X29" s="1">
@@ -24159,15 +24159,15 @@
       </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1">
-        <f>G29*R29</f>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="AJ29" s="10">
-        <f>VLOOKUP(I29,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I29,[3]Sheet!$I:$AJ,27,0)</f>
         <v>0.25</v>
       </c>
       <c r="AK29" s="10">
-        <f>VLOOKUP(I29,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I29,[3]Sheet!$I:$AJ,28,0)</f>
         <v>1.5</v>
       </c>
       <c r="AL29" s="1">
@@ -24233,11 +24233,11 @@
         <v>60</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.2698</v>
       </c>
       <c r="R30" s="5">
-        <f>VLOOKUP(A30,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A30,[2]Sheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="S30" s="5">
@@ -24249,11 +24249,11 @@
         <v>40</v>
       </c>
       <c r="V30" s="1">
-        <f>(F30+O30+R30)/Q30</f>
+        <f t="shared" si="4"/>
         <v>19.787119594451415</v>
       </c>
       <c r="W30" s="1">
-        <f>(F30+O30)/Q30</f>
+        <f t="shared" si="5"/>
         <v>19.787119594451415</v>
       </c>
       <c r="X30" s="1">
@@ -24289,15 +24289,15 @@
       </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1">
-        <f>G30*R30</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ30" s="10">
-        <f>VLOOKUP(I30,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I30,[3]Sheet!$I:$AJ,27,0)</f>
         <v>1.25</v>
       </c>
       <c r="AK30" s="10">
-        <f>VLOOKUP(I30,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I30,[3]Sheet!$I:$AJ,28,0)</f>
         <v>5</v>
       </c>
       <c r="AL30" s="1">
@@ -24363,11 +24363,11 @@
         <v>200</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50.6</v>
       </c>
       <c r="R31" s="5">
-        <f>VLOOKUP(A31,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A31,[2]Sheet!$A:$S,19,0)</f>
         <v>100</v>
       </c>
       <c r="S31" s="5">
@@ -24379,11 +24379,11 @@
         <v>100</v>
       </c>
       <c r="V31" s="1">
-        <f>(F31+O31+R31)/Q31</f>
+        <f t="shared" si="4"/>
         <v>27.66798418972332</v>
       </c>
       <c r="W31" s="1">
-        <f>(F31+O31)/Q31</f>
+        <f t="shared" si="5"/>
         <v>25.691699604743082</v>
       </c>
       <c r="X31" s="1">
@@ -24419,15 +24419,15 @@
       </c>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1">
-        <f>G31*R31</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="AJ31" s="10">
-        <f>VLOOKUP(I31,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I31,[3]Sheet!$I:$AJ,27,0)</f>
         <v>0.4</v>
       </c>
       <c r="AK31" s="10">
-        <f>VLOOKUP(I31,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I31,[3]Sheet!$I:$AJ,28,0)</f>
         <v>1.6</v>
       </c>
       <c r="AL31" s="1">
@@ -24493,11 +24493,11 @@
         <v>200</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>42.4</v>
       </c>
       <c r="R32" s="5">
-        <f>VLOOKUP(A32,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A32,[2]Sheet!$A:$S,19,0)</f>
         <v>120</v>
       </c>
       <c r="S32" s="5">
@@ -24509,11 +24509,11 @@
         <v>200</v>
       </c>
       <c r="V32" s="1">
-        <f>(F32+O32+R32)/Q32</f>
+        <f t="shared" si="4"/>
         <v>13.891509433962264</v>
       </c>
       <c r="W32" s="1">
-        <f>(F32+O32)/Q32</f>
+        <f t="shared" si="5"/>
         <v>11.061320754716981</v>
       </c>
       <c r="X32" s="1">
@@ -24549,15 +24549,15 @@
       </c>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1">
-        <f>G32*R32</f>
+        <f t="shared" si="11"/>
         <v>54</v>
       </c>
       <c r="AJ32" s="10">
-        <f>VLOOKUP(I32,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I32,[3]Sheet!$I:$AJ,27,0)</f>
         <v>0.45</v>
       </c>
       <c r="AK32" s="10">
-        <f>VLOOKUP(I32,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I32,[3]Sheet!$I:$AJ,28,0)</f>
         <v>1.8</v>
       </c>
       <c r="AL32" s="1">
@@ -24619,11 +24619,11 @@
         <v>300</v>
       </c>
       <c r="Q33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>52.2</v>
       </c>
       <c r="R33" s="5">
-        <f>VLOOKUP(A33,[3]Sheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A33,[2]Sheet!$A:$S,19,0)</f>
         <v>200</v>
       </c>
       <c r="S33" s="5">
@@ -24635,11 +24635,11 @@
         <v>300</v>
       </c>
       <c r="V33" s="1">
-        <f>(F33+O33+R33)/Q33</f>
+        <f t="shared" si="4"/>
         <v>10.536398467432949</v>
       </c>
       <c r="W33" s="1">
-        <f>(F33+O33)/Q33</f>
+        <f t="shared" si="5"/>
         <v>6.7049808429118771</v>
       </c>
       <c r="X33" s="1">
@@ -24675,15 +24675,15 @@
       </c>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1">
-        <f>G33*R33</f>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="AJ33" s="10">
-        <f>VLOOKUP(I33,[2]Sheet!$I:$AJ,27,0)</f>
+        <f>VLOOKUP(I33,[3]Sheet!$I:$AJ,27,0)</f>
         <v>0.45</v>
       </c>
       <c r="AK33" s="10">
-        <f>VLOOKUP(I33,[2]Sheet!$I:$AJ,28,0)</f>
+        <f>VLOOKUP(I33,[3]Sheet!$I:$AJ,28,0)</f>
         <v>1.8</v>
       </c>
       <c r="AL33" s="1">
@@ -24739,7 +24739,7 @@
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9083999999999999</v>
       </c>
       <c r="R34" s="5"/>
@@ -24749,11 +24749,11 @@
         <v>0</v>
       </c>
       <c r="V34" s="18">
-        <f>(F34+O34+R34)/Q34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W34" s="18">
-        <f>(F34+O34)/Q34</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X34" s="18">
@@ -24841,7 +24841,7 @@
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.6170000000000002</v>
       </c>
       <c r="R35" s="5"/>
@@ -24851,11 +24851,11 @@
         <v>0</v>
       </c>
       <c r="V35" s="18">
-        <f>(F35+O35+R35)/Q35</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W35" s="18">
-        <f>(F35+O35)/Q35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X35" s="18">
@@ -24943,7 +24943,7 @@
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.2</v>
       </c>
       <c r="R36" s="5"/>
@@ -24953,11 +24953,11 @@
         <v>0</v>
       </c>
       <c r="V36" s="18">
-        <f>(F36+O36+R36)/Q36</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W36" s="18">
-        <f>(F36+O36)/Q36</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X36" s="18">
@@ -25045,7 +25045,7 @@
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
       <c r="Q37" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="R37" s="5"/>
@@ -25055,11 +25055,11 @@
         <v>0</v>
       </c>
       <c r="V37" s="18">
-        <f>(F37+O37+R37)/Q37</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W37" s="18">
-        <f>(F37+O37)/Q37</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X37" s="18">
